--- a/va_facility_data_2025-02-20/James H. Quillen Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''James%20H.%20Quillen%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/James H. Quillen Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''James%20H.%20Quillen%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rb9a248f174ad4d7887a8a02c8c3d33ae"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Ra35fadc0680e480f90ddf4bd08e9a107"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R8c6389e65fd04c7d8198e4b1eaf8b605"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rd0ef4292abde4a06ada748711922a310"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2ae1376606684b00a1cd792bba4de038"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R526ddab5e6454964a8ff0b99073b2563"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R65fc2c2a5b5848189acb3f01d72f84d1"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R784a5e89f9464d0c824df09023caa2ad"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9c771cdaba3f4fe9889f081b3a440929"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rfaadd00265d74f88888b7f91bfbc76ef"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R09692862d5d54bd68df46cedb1b07a7c"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R0489292b0f54432092de7cf42cf68a05"/>
   </x:sheets>
 </x:workbook>
 </file>
